--- a/biology/Biologie cellulaire et moléculaire/Cyclophiline_B/Cyclophiline_B.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cyclophiline_B/Cyclophiline_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cyclophiline B est une protéine appartenant à la famille des cyclophilines ayant une activité de Peptidyl prolyl isomérase. Son gène est le PPIB situé sur le chromosome 15 humain.
-Il est exprimé dans tous les tissus et présente une homologie avec la cyclophiline A d'environ 65%[5].
+Il est exprimé dans tous les tissus et présente une homologie avec la cyclophiline A d'environ 65%.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres peptidyl prolyl isomérases, elle permet la transformation de certaines protéines de la forme trans à la forme cis, modulant leur activité.
-Elle possède une activité mitotique inhibée par la ciclosporine[6].
-Elle participe à la stabilité du réticulum endoplasmique[7], à la synthèse des ribosomes et à la transcription de l'ARN[8]. Elle intervient dans le signal calcique[9]. Elle interagit avec la prolactine en augmentant son expression[10]. Elle inhibe la transcription du TNF-alpha, diminuant ainsi la réponse inflammatoire[11]. 
-En activant le système ERK, elle contribue à la protection des cellules hépatiques contre le stress oxydatif[12].
+Elle possède une activité mitotique inhibée par la ciclosporine.
+Elle participe à la stabilité du réticulum endoplasmique, à la synthèse des ribosomes et à la transcription de l'ARN. Elle intervient dans le signal calcique. Elle interagit avec la prolactine en augmentant son expression. Elle inhibe la transcription du TNF-alpha, diminuant ainsi la réponse inflammatoire. 
+En activant le système ERK, elle contribue à la protection des cellules hépatiques contre le stress oxydatif.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène cause une forme d'ostéogenèse imparfaite[13].
-Elle jouerait un rôle dans la genèse du cancer du sein[14].
-Elle favoriserait la prolifération de certains types de virus de l'hépatite C[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène cause une forme d'ostéogenèse imparfaite.
+Elle jouerait un rôle dans la genèse du cancer du sein.
+Elle favoriserait la prolifération de certains types de virus de l'hépatite C.
 </t>
         </is>
       </c>
